--- a/natmiOut/OldD7/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.9703537567207</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H2">
-        <v>12.9703537567207</v>
+        <v>0.503984</v>
       </c>
       <c r="I2">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J2">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>1499.403301125519</v>
+        <v>19.83126848793422</v>
       </c>
       <c r="R2">
-        <v>1499.403301125519</v>
+        <v>178.481416391408</v>
       </c>
       <c r="S2">
-        <v>0.4554686536756622</v>
+        <v>0.005087524341475679</v>
       </c>
       <c r="T2">
-        <v>0.4554686536756622</v>
+        <v>0.00508752434147568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.9703537567207</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H3">
-        <v>12.9703537567207</v>
+        <v>0.503984</v>
       </c>
       <c r="I3">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J3">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>769.852032549558</v>
+        <v>9.973148758051554</v>
       </c>
       <c r="R3">
-        <v>769.852032549558</v>
+        <v>89.75833882246398</v>
       </c>
       <c r="S3">
-        <v>0.2338553400086625</v>
+        <v>0.002558516975281522</v>
       </c>
       <c r="T3">
-        <v>0.2338553400086625</v>
+        <v>0.002558516975281522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.9703537567207</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H4">
-        <v>12.9703537567207</v>
+        <v>0.503984</v>
       </c>
       <c r="I4">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J4">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>682.8959328929333</v>
+        <v>9.549667634323555</v>
       </c>
       <c r="R4">
-        <v>682.8959328929333</v>
+        <v>85.94700870891199</v>
       </c>
       <c r="S4">
-        <v>0.2074409806366645</v>
+        <v>0.002449876898806711</v>
       </c>
       <c r="T4">
-        <v>0.2074409806366645</v>
+        <v>0.002449876898806712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>12.9703537567207</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H5">
-        <v>12.9703537567207</v>
+        <v>0.503984</v>
       </c>
       <c r="I5">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J5">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>180.7343460153432</v>
+        <v>3.227722409368889</v>
       </c>
       <c r="R5">
-        <v>180.7343460153432</v>
+        <v>29.04950168432</v>
       </c>
       <c r="S5">
-        <v>0.05490105910182234</v>
+        <v>0.000828041652261514</v>
       </c>
       <c r="T5">
-        <v>0.05490105910182234</v>
+        <v>0.0008280416522615142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.658748576658639</v>
+        <v>0.3341863333333333</v>
       </c>
       <c r="H6">
-        <v>0.658748576658639</v>
+        <v>1.002559</v>
       </c>
       <c r="I6">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="J6">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>76.15287978879525</v>
+        <v>39.44969821263144</v>
       </c>
       <c r="R6">
-        <v>76.15287978879525</v>
+        <v>355.047283913683</v>
       </c>
       <c r="S6">
-        <v>0.02313270192541981</v>
+        <v>0.01012044691153988</v>
       </c>
       <c r="T6">
-        <v>0.02313270192541981</v>
+        <v>0.01012044691153988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.658748576658639</v>
+        <v>0.3341863333333333</v>
       </c>
       <c r="H7">
-        <v>0.658748576658639</v>
+        <v>1.002559</v>
       </c>
       <c r="I7">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="J7">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>39.09985341895575</v>
+        <v>19.83926086090711</v>
       </c>
       <c r="R7">
-        <v>39.09985341895575</v>
+        <v>178.553347748164</v>
       </c>
       <c r="S7">
-        <v>0.01187722981687413</v>
+        <v>0.005089574709159947</v>
       </c>
       <c r="T7">
-        <v>0.01187722981687413</v>
+        <v>0.005089574709159949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.658748576658639</v>
+        <v>0.3341863333333333</v>
       </c>
       <c r="H8">
-        <v>0.658748576658639</v>
+        <v>1.002559</v>
       </c>
       <c r="I8">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="J8">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>34.68345831092665</v>
+        <v>18.99684361765411</v>
       </c>
       <c r="R8">
-        <v>34.68345831092665</v>
+        <v>170.971592558887</v>
       </c>
       <c r="S8">
-        <v>0.01053567645865233</v>
+        <v>0.004873460534046236</v>
       </c>
       <c r="T8">
-        <v>0.01053567645865233</v>
+        <v>0.004873460534046237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3341863333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.002559</v>
+      </c>
+      <c r="I9">
+        <v>0.02173067851584017</v>
+      </c>
+      <c r="J9">
+        <v>0.02173067851584017</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.21324333333333</v>
+      </c>
+      <c r="N9">
+        <v>57.63973</v>
+      </c>
+      <c r="O9">
+        <v>0.07580050295684103</v>
+      </c>
+      <c r="P9">
+        <v>0.07580050295684104</v>
+      </c>
+      <c r="Q9">
+        <v>6.420803341007778</v>
+      </c>
+      <c r="R9">
+        <v>57.78723006907</v>
+      </c>
+      <c r="S9">
+        <v>0.001647196361094105</v>
+      </c>
+      <c r="T9">
+        <v>0.001647196361094105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H10">
+        <v>42.398129</v>
+      </c>
+      <c r="I10">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J10">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>118.0470123333333</v>
+      </c>
+      <c r="N10">
+        <v>354.141037</v>
+      </c>
+      <c r="O10">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="P10">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="Q10">
+        <v>1668.324152324419</v>
+      </c>
+      <c r="R10">
+        <v>15014.91737091977</v>
+      </c>
+      <c r="S10">
+        <v>0.4279927801686678</v>
+      </c>
+      <c r="T10">
+        <v>0.4279927801686679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H11">
+        <v>42.398129</v>
+      </c>
+      <c r="I11">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J11">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>59.36586533333332</v>
+      </c>
+      <c r="N11">
+        <v>178.097596</v>
+      </c>
+      <c r="O11">
+        <v>0.2342114953037475</v>
+      </c>
+      <c r="P11">
+        <v>0.2342114953037476</v>
+      </c>
+      <c r="Q11">
+        <v>839.0005388664314</v>
+      </c>
+      <c r="R11">
+        <v>7551.004849797882</v>
+      </c>
+      <c r="S11">
+        <v>0.2152376519228304</v>
+      </c>
+      <c r="T11">
+        <v>0.2152376519228305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H12">
+        <v>42.398129</v>
+      </c>
+      <c r="I12">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J12">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>56.84506433333333</v>
+      </c>
+      <c r="N12">
+        <v>170.535193</v>
+      </c>
+      <c r="O12">
+        <v>0.2242663767030476</v>
+      </c>
+      <c r="P12">
+        <v>0.2242663767030477</v>
+      </c>
+      <c r="Q12">
+        <v>803.3747902059885</v>
+      </c>
+      <c r="R12">
+        <v>7230.373111853896</v>
+      </c>
+      <c r="S12">
+        <v>0.2060982030971755</v>
+      </c>
+      <c r="T12">
+        <v>0.2060982030971755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H13">
+        <v>42.398129</v>
+      </c>
+      <c r="I13">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J13">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.21324333333333</v>
+      </c>
+      <c r="N13">
+        <v>57.63973</v>
+      </c>
+      <c r="O13">
+        <v>0.07580050295684103</v>
+      </c>
+      <c r="P13">
+        <v>0.07580050295684104</v>
+      </c>
+      <c r="Q13">
+        <v>271.5351897850189</v>
+      </c>
+      <c r="R13">
+        <v>2443.81670806517</v>
+      </c>
+      <c r="S13">
+        <v>0.06965978441767359</v>
+      </c>
+      <c r="T13">
+        <v>0.06965978441767361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.230979</v>
+      </c>
+      <c r="I14">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J14">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>118.0470123333333</v>
+      </c>
+      <c r="N14">
+        <v>354.141037</v>
+      </c>
+      <c r="O14">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="P14">
+        <v>0.4657216250363638</v>
+      </c>
+      <c r="Q14">
+        <v>87.78680184280256</v>
+      </c>
+      <c r="R14">
+        <v>790.0812165852229</v>
+      </c>
+      <c r="S14">
+        <v>0.02252087361468037</v>
+      </c>
+      <c r="T14">
+        <v>0.02252087361468037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.658748576658639</v>
-      </c>
-      <c r="H9">
-        <v>0.658748576658639</v>
-      </c>
-      <c r="I9">
-        <v>0.04833396657718852</v>
-      </c>
-      <c r="J9">
-        <v>0.04833396657718852</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.9344191689216</v>
-      </c>
-      <c r="N9">
-        <v>13.9344191689216</v>
-      </c>
-      <c r="O9">
-        <v>0.05768941747806459</v>
-      </c>
-      <c r="P9">
-        <v>0.05768941747806459</v>
-      </c>
-      <c r="Q9">
-        <v>9.179278794091958</v>
-      </c>
-      <c r="R9">
-        <v>9.179278794091958</v>
-      </c>
-      <c r="S9">
-        <v>0.002788358376242249</v>
-      </c>
-      <c r="T9">
-        <v>0.002788358376242249</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.230979</v>
+      </c>
+      <c r="I15">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J15">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.36586533333332</v>
+      </c>
+      <c r="N15">
+        <v>178.097596</v>
+      </c>
+      <c r="O15">
+        <v>0.2342114953037475</v>
+      </c>
+      <c r="P15">
+        <v>0.2342114953037476</v>
+      </c>
+      <c r="Q15">
+        <v>44.14799962516489</v>
+      </c>
+      <c r="R15">
+        <v>397.3319966264839</v>
+      </c>
+      <c r="S15">
+        <v>0.01132575169647567</v>
+      </c>
+      <c r="T15">
+        <v>0.01132575169647567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.230979</v>
+      </c>
+      <c r="I16">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J16">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>56.84506433333333</v>
+      </c>
+      <c r="N16">
+        <v>170.535193</v>
+      </c>
+      <c r="O16">
+        <v>0.2242663767030476</v>
+      </c>
+      <c r="P16">
+        <v>0.2242663767030477</v>
+      </c>
+      <c r="Q16">
+        <v>42.27338159377189</v>
+      </c>
+      <c r="R16">
+        <v>380.460434343947</v>
+      </c>
+      <c r="S16">
+        <v>0.01084483617301918</v>
+      </c>
+      <c r="T16">
+        <v>0.01084483617301918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.230979</v>
+      </c>
+      <c r="I17">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J17">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.21324333333333</v>
+      </c>
+      <c r="N17">
+        <v>57.63973</v>
+      </c>
+      <c r="O17">
+        <v>0.07580050295684103</v>
+      </c>
+      <c r="P17">
+        <v>0.07580050295684104</v>
+      </c>
+      <c r="Q17">
+        <v>14.28811413285222</v>
+      </c>
+      <c r="R17">
+        <v>128.59302719567</v>
+      </c>
+      <c r="S17">
+        <v>0.003665480525811813</v>
+      </c>
+      <c r="T17">
+        <v>0.003665480525811813</v>
       </c>
     </row>
   </sheetData>
